--- a/Hours registry Lotte.xlsx
+++ b/Hours registry Lotte.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa092f67ee7c5ab2/Documenten/TU Delft/Honours programme/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lotte\OneDrive\Documenten\TU Delft\Honours programme\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="6A2CFD6AA9FBB131F056C659F3C146C3A85C9391" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{DF3DED38-7592-4921-8ED0-9214835048A1}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="6A2CFD6AA9FBB131F056C659F3C146C3A85C9391" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{F84768A0-2D09-4B99-8495-0F4EC4F25E9D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{DB354381-06BA-4110-A197-2190F6B59A00}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>When?</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Working on question 2 and 4</t>
+  </si>
+  <si>
+    <t>Working on github and question 3 with Anna</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,14 +1085,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16605A72-F8AD-4346-92C8-C08F1746A026}" name="Tabel1" displayName="Tabel1" ref="A1:K43" totalsRowShown="0">
-  <autoFilter ref="A1:K43" xr:uid="{8E387354-3D2E-4602-84B7-3441E002A202}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16605A72-F8AD-4346-92C8-C08F1746A026}" name="Tabel1" displayName="Tabel1" ref="A1:K44" totalsRowShown="0">
+  <autoFilter ref="A1:K44" xr:uid="{8E387354-3D2E-4602-84B7-3441E002A202}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{6C3F678C-EA16-4A92-9DBA-038CBBC76CF7}" name="When?" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{8937AFF2-8551-4D09-B0AE-5C4D18D214D7}" name="What?"/>
     <tableColumn id="3" xr3:uid="{FC21801A-9BED-44BA-87F4-0AA4E2EDB9CC}" name="How long?"/>
     <tableColumn id="4" xr3:uid="{34BFAD41-B9FA-4520-92A1-D23A46D21D11}" name="Total hours" dataDxfId="7">
-      <calculatedColumnFormula>SUM(C2:C122)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(C2:C123)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{3A1285F3-448A-4F23-82E2-9EB3688D61EC}" name="ECTS" dataDxfId="6">
       <calculatedColumnFormula>Tabel1[[#This Row],[Total hours]]/28</calculatedColumnFormula>
@@ -1414,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9279B77C-431C-440D-B584-C1069A24F312}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,32 +1484,32 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <f>SUM(C2:C122)</f>
-        <v>85</v>
+        <f>SUM(C2:C123)</f>
+        <v>90</v>
       </c>
       <c r="E2" s="3">
         <f>Tabel1[[#This Row],[Total hours]]/28</f>
-        <v>3.0357142857142856</v>
+        <v>3.2142857142857144</v>
       </c>
       <c r="F2" s="4">
         <f>Tabel1[[#This Row],[ECTS]]/5</f>
-        <v>0.6071428571428571</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G2" s="2">
         <f>(5*28)-Tabel1[[#This Row],[Total hours]]</f>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" ref="H2" ca="1" si="0">_xlfn.DAYS(DATE(2018,7,6), TODAY())</f>
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2">
         <f ca="1">Tabel1[[#This Row],[Hours to go]]/Tabel1[[#This Row],[Days left]]</f>
-        <v>0.76388888888888884</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="J2" s="5">
         <f ca="1">Tabel1[[#This Row],[Days left]]/7</f>
-        <v>10.285714285714286</v>
+        <v>9.2857142857142865</v>
       </c>
       <c r="K2" s="2">
         <f ca="1">Tabel1[[#This Row],[Days left]]/Tabel1[[#This Row],[Weeks left]]</f>
@@ -1963,13 +1966,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43202</v>
+        <v>43201</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1982,13 +1985,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43203</v>
+        <v>43202</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2001,13 +2004,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43207</v>
+        <v>43203</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -2020,13 +2023,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43208</v>
+        <v>43207</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2039,13 +2042,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43214</v>
+        <v>43208</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2057,7 +2060,15 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1">
+        <v>43214</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2068,7 +2079,15 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1">
+        <v>43222</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2155,6 +2174,17 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
